--- a/data/trans_bre/P16B08-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,31</t>
+          <t>0,0; 28,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-42,74; -5,12</t>
+          <t>-40,3; -5,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 26,53</t>
+          <t>-25,4; 27,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,18</t>
+          <t>0,0; 40,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,74; -5,12</t>
+          <t>-40,3; -5,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,88; 36,1</t>
+          <t>-29,07; 37,99</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 0,0</t>
+          <t>-18,83; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 0,0</t>
+          <t>-26,21; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 0,0</t>
+          <t>-18,83; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 0,0</t>
+          <t>-26,21; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 0,0</t>
+          <t>-38,16; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 0,0</t>
+          <t>-38,16; 0,0</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 33,99</t>
+          <t>-3,23; 31,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,02</t>
+          <t>0,0; 22,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 52,42</t>
+          <t>-3,24; 48,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,91</t>
+          <t>0,0; 29,32</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,33</t>
+          <t>0,0; 68,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 0,0</t>
+          <t>-20,1; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 0,0</t>
+          <t>-16,86; 0,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 215,01</t>
+          <t>0,0; 222,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 0,0</t>
+          <t>-20,1; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 0,0</t>
+          <t>-16,86; 0,0</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 57,0</t>
+          <t>0,0; 50,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 132,92</t>
+          <t>-1,74; 102,03</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 18,84</t>
+          <t>1,21; 18,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -1,11</t>
+          <t>-6,93; -1,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 9,29</t>
+          <t>-1,35; 10,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,75; 23,4</t>
+          <t>1,26; 22,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -1,11</t>
+          <t>-6,93; -1,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 10,53</t>
+          <t>-1,36; 12,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B08-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
